--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.2118441050803</v>
+        <v>41.23709466666667</v>
       </c>
       <c r="H2">
-        <v>14.2118441050803</v>
+        <v>123.711284</v>
       </c>
       <c r="I2">
-        <v>0.8873718784764713</v>
+        <v>0.956365997213294</v>
       </c>
       <c r="J2">
-        <v>0.8873718784764713</v>
+        <v>0.9563659972132939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>224.808430360729</v>
+        <v>0.2781686666666667</v>
       </c>
       <c r="N2">
-        <v>224.808430360729</v>
+        <v>0.834506</v>
       </c>
       <c r="O2">
-        <v>0.9986463269762083</v>
+        <v>0.001228014730390642</v>
       </c>
       <c r="P2">
-        <v>0.9986463269762083</v>
+        <v>0.001228014730390642</v>
       </c>
       <c r="Q2">
-        <v>3194.942365794482</v>
+        <v>11.47086764063378</v>
       </c>
       <c r="R2">
-        <v>3194.942365794482</v>
+        <v>103.237808765704</v>
       </c>
       <c r="S2">
-        <v>0.8861706671025062</v>
+        <v>0.001174431532222661</v>
       </c>
       <c r="T2">
-        <v>0.8861706671025062</v>
+        <v>0.001174431532222661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.2118441050803</v>
+        <v>41.23709466666667</v>
       </c>
       <c r="H3">
-        <v>14.2118441050803</v>
+        <v>123.711284</v>
       </c>
       <c r="I3">
-        <v>0.8873718784764713</v>
+        <v>0.956365997213294</v>
       </c>
       <c r="J3">
-        <v>0.8873718784764713</v>
+        <v>0.9563659972132939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.304729611955527</v>
+        <v>225.778076</v>
       </c>
       <c r="N3">
-        <v>0.304729611955527</v>
+        <v>677.3342279999999</v>
       </c>
       <c r="O3">
-        <v>0.001353673023791693</v>
+        <v>0.9967290940769435</v>
       </c>
       <c r="P3">
-        <v>0.001353673023791693</v>
+        <v>0.9967290940769435</v>
       </c>
       <c r="Q3">
-        <v>4.330769739313563</v>
+        <v>9310.431893669862</v>
       </c>
       <c r="R3">
-        <v>4.330769739313563</v>
+        <v>83793.88704302875</v>
       </c>
       <c r="S3">
-        <v>0.00120121137396496</v>
+        <v>0.9532378140083992</v>
       </c>
       <c r="T3">
-        <v>0.00120121137396496</v>
+        <v>0.9532378140083991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.80381342226958</v>
+        <v>41.23709466666667</v>
       </c>
       <c r="H4">
-        <v>1.80381342226958</v>
+        <v>123.711284</v>
       </c>
       <c r="I4">
-        <v>0.1126281215235287</v>
+        <v>0.956365997213294</v>
       </c>
       <c r="J4">
-        <v>0.1126281215235287</v>
+        <v>0.9563659972132939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>224.808430360729</v>
+        <v>0.4627536666666667</v>
       </c>
       <c r="N4">
-        <v>224.808430360729</v>
+        <v>1.388261</v>
       </c>
       <c r="O4">
-        <v>0.9986463269762083</v>
+        <v>0.002042891192665893</v>
       </c>
       <c r="P4">
-        <v>0.9986463269762083</v>
+        <v>0.002042891192665893</v>
       </c>
       <c r="Q4">
-        <v>405.5124641240392</v>
+        <v>19.08261675968045</v>
       </c>
       <c r="R4">
-        <v>405.5124641240392</v>
+        <v>171.743550837124</v>
       </c>
       <c r="S4">
-        <v>0.112475659873702</v>
+        <v>0.001953751672672172</v>
       </c>
       <c r="T4">
-        <v>0.112475659873702</v>
+        <v>0.001953751672672172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.030543</v>
+      </c>
+      <c r="H5">
+        <v>0.091629</v>
+      </c>
+      <c r="I5">
+        <v>0.0007083497731593903</v>
+      </c>
+      <c r="J5">
+        <v>0.0007083497731593902</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2781686666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.834506</v>
+      </c>
+      <c r="O5">
+        <v>0.001228014730390642</v>
+      </c>
+      <c r="P5">
+        <v>0.001228014730390642</v>
+      </c>
+      <c r="Q5">
+        <v>0.008496105586000001</v>
+      </c>
+      <c r="R5">
+        <v>0.07646495027399999</v>
+      </c>
+      <c r="S5">
+        <v>8.698639557086014E-07</v>
+      </c>
+      <c r="T5">
+        <v>8.698639557086012E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.030543</v>
+      </c>
+      <c r="H6">
+        <v>0.091629</v>
+      </c>
+      <c r="I6">
+        <v>0.0007083497731593903</v>
+      </c>
+      <c r="J6">
+        <v>0.0007083497731593902</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>225.778076</v>
+      </c>
+      <c r="N6">
+        <v>677.3342279999999</v>
+      </c>
+      <c r="O6">
+        <v>0.9967290940769435</v>
+      </c>
+      <c r="P6">
+        <v>0.9967290940769435</v>
+      </c>
+      <c r="Q6">
+        <v>6.895939775267999</v>
+      </c>
+      <c r="R6">
+        <v>62.06345797741199</v>
+      </c>
+      <c r="S6">
+        <v>0.0007060328276907676</v>
+      </c>
+      <c r="T6">
+        <v>0.0007060328276907675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.030543</v>
+      </c>
+      <c r="H7">
+        <v>0.091629</v>
+      </c>
+      <c r="I7">
+        <v>0.0007083497731593903</v>
+      </c>
+      <c r="J7">
+        <v>0.0007083497731593902</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4627536666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.388261</v>
+      </c>
+      <c r="O7">
+        <v>0.002042891192665893</v>
+      </c>
+      <c r="P7">
+        <v>0.002042891192665893</v>
+      </c>
+      <c r="Q7">
+        <v>0.014133885241</v>
+      </c>
+      <c r="R7">
+        <v>0.127204967169</v>
+      </c>
+      <c r="S7">
+        <v>1.447081512914202E-06</v>
+      </c>
+      <c r="T7">
+        <v>1.447081512914201E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.850891</v>
+      </c>
+      <c r="H8">
+        <v>5.552673</v>
+      </c>
+      <c r="I8">
+        <v>0.0429256530135467</v>
+      </c>
+      <c r="J8">
+        <v>0.04292565301354669</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2781686666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.834506</v>
+      </c>
+      <c r="O8">
+        <v>0.001228014730390642</v>
+      </c>
+      <c r="P8">
+        <v>0.001228014730390642</v>
+      </c>
+      <c r="Q8">
+        <v>0.5148598816153334</v>
+      </c>
+      <c r="R8">
+        <v>4.633738934537999</v>
+      </c>
+      <c r="S8">
+        <v>5.271333421227281E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.271333421227281E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.80381342226958</v>
-      </c>
-      <c r="H5">
-        <v>1.80381342226958</v>
-      </c>
-      <c r="I5">
-        <v>0.1126281215235287</v>
-      </c>
-      <c r="J5">
-        <v>0.1126281215235287</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.304729611955527</v>
-      </c>
-      <c r="N5">
-        <v>0.304729611955527</v>
-      </c>
-      <c r="O5">
-        <v>0.001353673023791693</v>
-      </c>
-      <c r="P5">
-        <v>0.001353673023791693</v>
-      </c>
-      <c r="Q5">
-        <v>0.5496753642083803</v>
-      </c>
-      <c r="R5">
-        <v>0.5496753642083803</v>
-      </c>
-      <c r="S5">
-        <v>0.0001524616498267334</v>
-      </c>
-      <c r="T5">
-        <v>0.0001524616498267334</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.850891</v>
+      </c>
+      <c r="H9">
+        <v>5.552673</v>
+      </c>
+      <c r="I9">
+        <v>0.0429256530135467</v>
+      </c>
+      <c r="J9">
+        <v>0.04292565301354669</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>225.778076</v>
+      </c>
+      <c r="N9">
+        <v>677.3342279999999</v>
+      </c>
+      <c r="O9">
+        <v>0.9967290940769435</v>
+      </c>
+      <c r="P9">
+        <v>0.9967290940769435</v>
+      </c>
+      <c r="Q9">
+        <v>417.8906088657159</v>
+      </c>
+      <c r="R9">
+        <v>3761.015479791443</v>
+      </c>
+      <c r="S9">
+        <v>0.04278524724085362</v>
+      </c>
+      <c r="T9">
+        <v>0.04278524724085361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.850891</v>
+      </c>
+      <c r="H10">
+        <v>5.552673</v>
+      </c>
+      <c r="I10">
+        <v>0.0429256530135467</v>
+      </c>
+      <c r="J10">
+        <v>0.04292565301354669</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4627536666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.388261</v>
+      </c>
+      <c r="O10">
+        <v>0.002042891192665893</v>
+      </c>
+      <c r="P10">
+        <v>0.002042891192665893</v>
+      </c>
+      <c r="Q10">
+        <v>0.8565065968503333</v>
+      </c>
+      <c r="R10">
+        <v>7.708559371652999</v>
+      </c>
+      <c r="S10">
+        <v>8.76924384808067E-05</v>
+      </c>
+      <c r="T10">
+        <v>8.769243848080666E-05</v>
       </c>
     </row>
   </sheetData>
